--- a/02. Feb/27.xlsx
+++ b/02. Feb/27.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Work\1. Daily\Production follow up\02. Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\1. Work\1. Daily\Production follow up\02. Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2614EFC2-F351-4F3D-90B3-03E5B28E16D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1E800D-AEE6-40F0-ABCF-B831BE9AB0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t xml:space="preserve">Date: </t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Plan Vs Achievement</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S4" activeCellId="1" sqref="S6:S12 S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,225 +650,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <f ca="1">TODAY() - 2</f>
-        <v>45715</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+        <v>46012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="W3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5">
-        <v>112294</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2556005</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2521558</v>
-      </c>
-      <c r="E3" s="5">
-        <v>34447</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2556005</v>
-      </c>
-      <c r="G3" s="5">
-        <v>34447</v>
-      </c>
-      <c r="H3" s="5">
-        <v>146741</v>
-      </c>
-      <c r="I3" s="5">
-        <v>899522</v>
-      </c>
-      <c r="J3" s="5">
-        <v>678255</v>
-      </c>
-      <c r="K3" s="5">
-        <v>113872</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="M3" s="5">
-        <v>14674</v>
-      </c>
-      <c r="N3" s="4">
-        <v>6.13</v>
-      </c>
-      <c r="O3" s="4">
-        <v>6.04</v>
-      </c>
-      <c r="P3" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>11.05</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="5">
-        <v>15230210</v>
-      </c>
-      <c r="U3" s="5">
-        <v>15668310</v>
-      </c>
-      <c r="V3" s="4">
-        <v>23</v>
-      </c>
-      <c r="W3" s="4">
-        <v>23</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5">
-        <v>15455</v>
+        <v>112294</v>
       </c>
       <c r="C4" s="5">
-        <v>308063</v>
+        <v>2556005</v>
       </c>
       <c r="D4" s="5">
-        <v>320410</v>
-      </c>
-      <c r="E4" s="4">
-        <v>-12347</v>
+        <v>2521558</v>
+      </c>
+      <c r="E4" s="5">
+        <v>34447</v>
       </c>
       <c r="F4" s="5">
-        <v>308063</v>
-      </c>
-      <c r="G4" s="4">
-        <v>-12347</v>
+        <v>2556005</v>
+      </c>
+      <c r="G4" s="5">
+        <v>34447</v>
       </c>
       <c r="H4" s="5">
-        <v>3108</v>
+        <v>146741</v>
       </c>
       <c r="I4" s="5">
-        <v>15633</v>
+        <v>899522</v>
       </c>
       <c r="J4" s="5">
-        <v>76347</v>
+        <v>678255</v>
       </c>
       <c r="K4" s="5">
-        <v>15552</v>
+        <v>113872</v>
       </c>
       <c r="L4" s="10">
-        <v>1.0214000000000001</v>
-      </c>
-      <c r="M4" s="4">
-        <v>310</v>
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="M4" s="5">
+        <v>14674</v>
       </c>
       <c r="N4" s="4">
-        <v>5.03</v>
+        <v>6.13</v>
       </c>
       <c r="O4" s="4">
-        <v>4.9400000000000004</v>
+        <v>6.04</v>
       </c>
       <c r="P4" s="4">
         <v>10</v>
       </c>
       <c r="Q4" s="4">
-        <v>10</v>
+        <v>11.05</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="T4" s="5">
-        <v>1582825</v>
+        <v>15230210</v>
       </c>
       <c r="U4" s="5">
-        <v>1549556</v>
+        <v>15668310</v>
       </c>
       <c r="V4" s="4">
         <v>23</v>
@@ -879,67 +813,67 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5">
-        <v>50287</v>
+        <v>15455</v>
       </c>
       <c r="C5" s="5">
-        <v>1594537</v>
+        <v>308063</v>
       </c>
       <c r="D5" s="5">
-        <v>1417179</v>
-      </c>
-      <c r="E5" s="5">
-        <v>177358</v>
+        <v>320410</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-12347</v>
       </c>
       <c r="F5" s="5">
-        <v>1594537</v>
-      </c>
-      <c r="G5" s="5">
-        <v>177358</v>
+        <v>308063</v>
+      </c>
+      <c r="G5" s="4">
+        <v>-12347</v>
       </c>
       <c r="H5" s="5">
-        <v>227645</v>
+        <v>3108</v>
       </c>
       <c r="I5" s="5">
-        <v>1388634</v>
+        <v>15633</v>
       </c>
       <c r="J5" s="5">
-        <v>328374</v>
+        <v>76347</v>
       </c>
       <c r="K5" s="5">
-        <v>43131</v>
+        <v>15552</v>
       </c>
       <c r="L5" s="10">
-        <v>0.95140000000000002</v>
-      </c>
-      <c r="M5" s="5">
-        <v>20695</v>
+        <v>1.0214000000000001</v>
+      </c>
+      <c r="M5" s="4">
+        <v>310</v>
       </c>
       <c r="N5" s="4">
-        <v>6.1</v>
+        <v>5.03</v>
       </c>
       <c r="O5" s="4">
-        <v>6.53</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="P5" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="4">
-        <v>12.97</v>
+        <v>10</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="T5" s="5">
-        <v>9254178</v>
+        <v>1582825</v>
       </c>
       <c r="U5" s="5">
-        <v>9726675</v>
+        <v>1549556</v>
       </c>
       <c r="V5" s="4">
         <v>23</v>
@@ -953,67 +887,67 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5">
-        <v>83082</v>
+        <v>50287</v>
       </c>
       <c r="C6" s="5">
-        <v>2044630</v>
+        <v>1594537</v>
       </c>
       <c r="D6" s="5">
-        <v>2037109</v>
+        <v>1417179</v>
       </c>
       <c r="E6" s="5">
-        <v>7521</v>
+        <v>177358</v>
       </c>
       <c r="F6" s="5">
-        <v>2044630</v>
+        <v>1594537</v>
       </c>
       <c r="G6" s="5">
-        <v>7521</v>
+        <v>177358</v>
       </c>
       <c r="H6" s="5">
-        <v>90603</v>
+        <v>227645</v>
       </c>
       <c r="I6" s="5">
-        <v>790058</v>
+        <v>1388634</v>
       </c>
       <c r="J6" s="5">
-        <v>675456</v>
+        <v>328374</v>
       </c>
       <c r="K6" s="5">
-        <v>97652</v>
+        <v>43131</v>
       </c>
       <c r="L6" s="10">
-        <v>0.92889999999999995</v>
+        <v>0.95140000000000002</v>
       </c>
       <c r="M6" s="5">
-        <v>10067</v>
+        <v>20695</v>
       </c>
       <c r="N6" s="4">
-        <v>8.7200000000000006</v>
+        <v>6.1</v>
       </c>
       <c r="O6" s="4">
-        <v>8.1300000000000008</v>
+        <v>6.53</v>
       </c>
       <c r="P6" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="4">
-        <v>10.98</v>
+        <v>12.97</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T6" s="5">
-        <v>16561696</v>
+        <v>9254178</v>
       </c>
       <c r="U6" s="5">
-        <v>17829173</v>
+        <v>9726675</v>
       </c>
       <c r="V6" s="4">
         <v>23</v>
@@ -1027,67 +961,67 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" s="5">
-        <v>58343</v>
+        <v>83082</v>
       </c>
       <c r="C7" s="5">
-        <v>1410161</v>
+        <v>2044630</v>
       </c>
       <c r="D7" s="5">
-        <v>1403534</v>
+        <v>2037109</v>
       </c>
       <c r="E7" s="5">
-        <v>6627</v>
+        <v>7521</v>
       </c>
       <c r="F7" s="5">
-        <v>1410161</v>
+        <v>2044630</v>
       </c>
       <c r="G7" s="5">
-        <v>6627</v>
+        <v>7521</v>
       </c>
       <c r="H7" s="5">
-        <v>64970</v>
+        <v>90603</v>
       </c>
       <c r="I7" s="5">
-        <v>586029</v>
+        <v>790058</v>
       </c>
       <c r="J7" s="5">
-        <v>482496</v>
+        <v>675456</v>
       </c>
       <c r="K7" s="5">
-        <v>61324</v>
+        <v>97652</v>
       </c>
       <c r="L7" s="10">
-        <v>0.91249999999999998</v>
+        <v>0.92889999999999995</v>
       </c>
       <c r="M7" s="5">
-        <v>6497</v>
+        <v>10067</v>
       </c>
       <c r="N7" s="4">
-        <v>9.02</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="O7" s="4">
-        <v>8.27</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="P7" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q7" s="4">
-        <v>8.49</v>
+        <v>10.98</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T7" s="5">
-        <v>11607226</v>
+        <v>16561696</v>
       </c>
       <c r="U7" s="5">
-        <v>12719652</v>
+        <v>17829173</v>
       </c>
       <c r="V7" s="4">
         <v>23</v>
@@ -1101,67 +1035,67 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5">
-        <v>106355</v>
+        <v>58343</v>
       </c>
       <c r="C8" s="5">
-        <v>2663161</v>
+        <v>1410161</v>
       </c>
       <c r="D8" s="5">
-        <v>2615808</v>
+        <v>1403534</v>
       </c>
       <c r="E8" s="5">
-        <v>47353</v>
+        <v>6627</v>
       </c>
       <c r="F8" s="5">
-        <v>2663161</v>
+        <v>1410161</v>
       </c>
       <c r="G8" s="5">
-        <v>47353</v>
+        <v>6627</v>
       </c>
       <c r="H8" s="5">
-        <v>153708</v>
+        <v>64970</v>
       </c>
       <c r="I8" s="5">
-        <v>942230</v>
+        <v>586029</v>
       </c>
       <c r="J8" s="5">
-        <v>662591</v>
+        <v>482496</v>
       </c>
       <c r="K8" s="5">
-        <v>110844</v>
+        <v>61324</v>
       </c>
       <c r="L8" s="10">
-        <v>0.99819999999999998</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="M8" s="5">
-        <v>15370</v>
+        <v>6497</v>
       </c>
       <c r="N8" s="4">
-        <v>6.13</v>
+        <v>9.02</v>
       </c>
       <c r="O8" s="4">
-        <v>6.23</v>
+        <v>8.27</v>
       </c>
       <c r="P8" s="4">
         <v>10</v>
       </c>
       <c r="Q8" s="4">
-        <v>12.89</v>
+        <v>8.49</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="T8" s="5">
-        <v>16296483</v>
+        <v>11607226</v>
       </c>
       <c r="U8" s="5">
-        <v>16325176</v>
+        <v>12719652</v>
       </c>
       <c r="V8" s="4">
         <v>23</v>
@@ -1175,280 +1109,334 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5">
-        <v>139265</v>
+        <v>106355</v>
       </c>
       <c r="C9" s="5">
-        <v>3419324</v>
+        <v>2663161</v>
       </c>
       <c r="D9" s="5">
-        <v>3281732</v>
+        <v>2615808</v>
       </c>
       <c r="E9" s="5">
-        <v>137592</v>
+        <v>47353</v>
       </c>
       <c r="F9" s="5">
-        <v>3419324</v>
+        <v>2663161</v>
       </c>
       <c r="G9" s="5">
-        <v>137592</v>
+        <v>47353</v>
       </c>
       <c r="H9" s="5">
-        <v>276857</v>
+        <v>153708</v>
       </c>
       <c r="I9" s="5">
-        <v>2383738</v>
+        <v>942230</v>
       </c>
       <c r="J9" s="5">
-        <v>1084874</v>
+        <v>662591</v>
       </c>
       <c r="K9" s="5">
-        <v>147649</v>
+        <v>110844</v>
       </c>
       <c r="L9" s="10">
-        <v>0.86829999999999996</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="M9" s="5">
-        <v>27685</v>
+        <v>15370</v>
       </c>
       <c r="N9" s="4">
-        <v>8.61</v>
+        <v>6.13</v>
       </c>
       <c r="O9" s="4">
-        <v>7.79</v>
+        <v>6.23</v>
       </c>
       <c r="P9" s="4">
         <v>10</v>
       </c>
       <c r="Q9" s="4">
+        <v>12.89</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="5">
+        <v>16296483</v>
+      </c>
+      <c r="U9" s="5">
+        <v>16325176</v>
+      </c>
+      <c r="V9" s="4">
+        <v>23</v>
+      </c>
+      <c r="W9" s="4">
+        <v>23</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5">
+        <v>139265</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3419324</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3281732</v>
+      </c>
+      <c r="E10" s="5">
+        <v>137592</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3419324</v>
+      </c>
+      <c r="G10" s="5">
+        <v>137592</v>
+      </c>
+      <c r="H10" s="5">
+        <v>276857</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2383738</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1084874</v>
+      </c>
+      <c r="K10" s="5">
+        <v>147649</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="M10" s="5">
+        <v>27685</v>
+      </c>
+      <c r="N10" s="4">
+        <v>8.61</v>
+      </c>
+      <c r="O10" s="4">
+        <v>7.79</v>
+      </c>
+      <c r="P10" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="4">
         <v>10.47</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T10" s="5">
         <v>25564692</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U10" s="5">
         <v>29440379</v>
       </c>
-      <c r="V9" s="4">
-        <v>23</v>
-      </c>
-      <c r="W9" s="4">
-        <v>23</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="V10" s="4">
+        <v>23</v>
+      </c>
+      <c r="W10" s="4">
+        <v>23</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B11" s="6">
         <v>565081</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>13995881</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>13597330</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <v>398551</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <v>13995881</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <v>398551</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="6">
         <v>963632</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I11" s="6">
         <v>7005844</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J11" s="6">
         <v>3988393</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K11" s="6">
         <v>590024</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L11" s="11">
         <v>0.95030000000000003</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M11" s="6">
         <v>13614</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N11" s="3">
         <v>7.35</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O11" s="3">
         <v>6.84</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P11" s="3">
         <v>9.98</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q11" s="3">
         <v>10.97</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T11" s="6">
         <v>93005737</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U11" s="6">
         <v>99370755</v>
       </c>
-      <c r="V10" s="3">
-        <v>23</v>
-      </c>
-      <c r="W10" s="3">
-        <v>23</v>
-      </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="V11" s="3">
+        <v>23</v>
+      </c>
+      <c r="W11" s="3">
+        <v>23</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B12" s="5">
         <v>140595</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C12" s="5">
         <v>3512343</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <v>3428286</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E12" s="5">
         <v>84057</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="5">
         <v>3512343</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G12" s="5">
         <v>84057</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H12" s="5">
         <v>224652</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I12" s="5">
         <v>885128</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J12" s="5">
         <v>667826</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K12" s="5">
         <v>134290</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L12" s="10">
         <v>1.1767000000000001</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M12" s="5">
         <v>21960</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N12" s="4">
         <v>3.94</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O12" s="4">
         <v>4.75</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P12" s="4">
         <v>10.23</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q12" s="4">
         <v>11.4</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T12" s="5">
         <v>16284358</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U12" s="5">
         <v>13838631</v>
       </c>
-      <c r="V11" s="4">
-        <v>23</v>
-      </c>
-      <c r="W11" s="4">
-        <v>23</v>
-      </c>
-      <c r="X11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="V12" s="4">
+        <v>23</v>
+      </c>
+      <c r="W12" s="4">
+        <v>23</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>13995881</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B17" s="8">
         <v>13597330</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C17" s="8">
         <v>560000</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>13597330</v>
-      </c>
-      <c r="F16" s="8">
-        <v>398551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="8">
-        <v>595000</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -1468,7 +1456,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="8">
-        <v>630000</v>
+        <v>595000</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -1488,7 +1476,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="8">
-        <v>665000</v>
+        <v>630000</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -1508,7 +1496,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="8">
-        <v>700000</v>
+        <v>665000</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -1528,7 +1516,7 @@
         <v>59</v>
       </c>
       <c r="C21" s="8">
-        <v>735000</v>
+        <v>700000</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -1537,6 +1525,26 @@
         <v>13597330</v>
       </c>
       <c r="F21" s="8">
+        <v>398551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="8">
+        <v>735000</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>13597330</v>
+      </c>
+      <c r="F22" s="8">
         <v>398551</v>
       </c>
     </row>
